--- a/resources/views/excel/CrewListReport.xlsx
+++ b/resources/views/excel/CrewListReport.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\mahamewnawa\resources\views\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAFF4E1B-16D8-4985-8EC7-8A27E79181D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F818785D-5DCC-4E99-825E-2506A9DE19E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t>No</t>
   </si>
@@ -58,6 +58,126 @@
   </si>
   <si>
     <t>Heart Disease</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Address Line 1</t>
+  </si>
+  <si>
+    <t>Address Line 2</t>
+  </si>
+  <si>
+    <t>Address Line 3</t>
+  </si>
+  <si>
+    <t>District</t>
+  </si>
+  <si>
+    <t>Mobile</t>
+  </si>
+  <si>
+    <t>Whatapp</t>
+  </si>
+  <si>
+    <t>Race</t>
+  </si>
+  <si>
+    <t>Birth Religion</t>
+  </si>
+  <si>
+    <t>Civil Status</t>
+  </si>
+  <si>
+    <t>Nearest Mahamewnawa Monastery</t>
+  </si>
+  <si>
+    <t>Birth Day</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>Guardian</t>
+  </si>
+  <si>
+    <t>Guardian Phone</t>
+  </si>
+  <si>
+    <t>Guardian Email</t>
+  </si>
+  <si>
+    <t>Birth Place</t>
+  </si>
+  <si>
+    <t>Occupation</t>
+  </si>
+  <si>
+    <t>Previous Abroad</t>
+  </si>
+  <si>
+    <t>Spouse</t>
+  </si>
+  <si>
+    <t>Spouse BirthPlace</t>
+  </si>
+  <si>
+    <t>Spouse Occupation</t>
+  </si>
+  <si>
+    <t>Mother</t>
+  </si>
+  <si>
+    <t>Mother Birth Place</t>
+  </si>
+  <si>
+    <t>Mother Occupation</t>
+  </si>
+  <si>
+    <t>Father</t>
+  </si>
+  <si>
+    <t>Father Birth Place</t>
+  </si>
+  <si>
+    <t>Father Occupation</t>
+  </si>
+  <si>
+    <t>Passport</t>
+  </si>
+  <si>
+    <t>Passport No</t>
+  </si>
+  <si>
+    <t>Police Report</t>
+  </si>
+  <si>
+    <t>Payment</t>
+  </si>
+  <si>
+    <t>Other Illness</t>
+  </si>
+  <si>
+    <t>Other Illness Description</t>
+  </si>
+  <si>
+    <t>Heart or Other Operation</t>
+  </si>
+  <si>
+    <t>Artificial Hand/Leg</t>
+  </si>
+  <si>
+    <t>Mental Illness</t>
+  </si>
+  <si>
+    <t>Forces</t>
+  </si>
+  <si>
+    <t>Forces Removal</t>
+  </si>
+  <si>
+    <t>Court Order</t>
   </si>
 </sst>
 </file>
@@ -97,7 +217,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -120,48 +240,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -179,15 +262,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -196,6 +270,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -535,53 +612,128 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:AX6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.28515625" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" customWidth="1"/>
-    <col min="4" max="4" width="23.7109375" customWidth="1"/>
-    <col min="5" max="6" width="17.7109375" customWidth="1"/>
-    <col min="7" max="7" width="17.28515625" customWidth="1"/>
-    <col min="8" max="8" width="17.28515625" style="5" customWidth="1"/>
-    <col min="9" max="9" width="25" style="5" customWidth="1"/>
-    <col min="10" max="10" width="19.140625" customWidth="1"/>
+    <col min="2" max="39" width="17.7109375" customWidth="1"/>
+    <col min="40" max="41" width="17.7109375" style="5" customWidth="1"/>
+    <col min="42" max="50" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:50" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="9"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
+      <c r="R1" s="10"/>
+      <c r="S1" s="10"/>
+      <c r="T1" s="10"/>
+      <c r="U1" s="10"/>
+      <c r="V1" s="10"/>
+      <c r="W1" s="10"/>
+      <c r="X1" s="10"/>
+      <c r="Y1" s="10"/>
+      <c r="Z1" s="10"/>
+      <c r="AA1" s="10"/>
+      <c r="AB1" s="10"/>
+      <c r="AC1" s="10"/>
+      <c r="AD1" s="10"/>
+      <c r="AE1" s="10"/>
+      <c r="AF1" s="10"/>
+      <c r="AG1" s="10"/>
+      <c r="AH1" s="10"/>
+      <c r="AI1" s="10"/>
+      <c r="AJ1" s="10"/>
+      <c r="AK1" s="10"/>
+      <c r="AL1" s="10"/>
+      <c r="AM1" s="10"/>
+      <c r="AN1" s="10"/>
+      <c r="AO1" s="10"/>
+      <c r="AP1" s="10"/>
+      <c r="AQ1" s="10"/>
+      <c r="AR1" s="10"/>
+      <c r="AS1" s="10"/>
+      <c r="AT1" s="10"/>
+      <c r="AU1" s="10"/>
+      <c r="AV1" s="10"/>
+      <c r="AW1" s="10"/>
+      <c r="AX1" s="10"/>
     </row>
-    <row r="2" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:50" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="9"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="10"/>
+      <c r="R2" s="10"/>
+      <c r="S2" s="10"/>
+      <c r="T2" s="10"/>
+      <c r="U2" s="10"/>
+      <c r="V2" s="10"/>
+      <c r="W2" s="10"/>
+      <c r="X2" s="10"/>
+      <c r="Y2" s="10"/>
+      <c r="Z2" s="10"/>
+      <c r="AA2" s="10"/>
+      <c r="AB2" s="10"/>
+      <c r="AC2" s="10"/>
+      <c r="AD2" s="10"/>
+      <c r="AE2" s="10"/>
+      <c r="AF2" s="10"/>
+      <c r="AG2" s="10"/>
+      <c r="AH2" s="10"/>
+      <c r="AI2" s="10"/>
+      <c r="AJ2" s="10"/>
+      <c r="AK2" s="10"/>
+      <c r="AL2" s="10"/>
+      <c r="AM2" s="10"/>
+      <c r="AN2" s="10"/>
+      <c r="AO2" s="10"/>
+      <c r="AP2" s="10"/>
+      <c r="AQ2" s="10"/>
+      <c r="AR2" s="10"/>
+      <c r="AS2" s="10"/>
+      <c r="AT2" s="10"/>
+      <c r="AU2" s="10"/>
+      <c r="AV2" s="10"/>
+      <c r="AW2" s="10"/>
+      <c r="AX2" s="10"/>
     </row>
-    <row r="3" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:50" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
@@ -598,55 +750,279 @@
         <v>6</v>
       </c>
       <c r="F3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="O3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="P3" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q3" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="R3" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="S3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="T3" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="U3" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="V3" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="W3" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="X3" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y3" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z3" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA3" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB3" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC3" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD3" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE3" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF3" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AG3" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH3" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="AI3" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ3" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK3" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="AL3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="AM3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="AN3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="AO3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="AP3" s="6" t="s">
         <v>11</v>
       </c>
+      <c r="AQ3" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="AR3" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="AS3" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="AT3" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="AU3" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="AV3" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="AW3" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="AX3" s="6" t="s">
+        <v>51</v>
+      </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="10"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
+    <row r="4" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
+      <c r="S4" s="7"/>
+      <c r="T4" s="7"/>
+      <c r="U4" s="7"/>
+      <c r="V4" s="7"/>
+      <c r="W4" s="7"/>
+      <c r="X4" s="7"/>
+      <c r="Y4" s="7"/>
+      <c r="Z4" s="7"/>
+      <c r="AA4" s="7"/>
+      <c r="AB4" s="7"/>
+      <c r="AC4" s="7"/>
+      <c r="AD4" s="7"/>
+      <c r="AE4" s="7"/>
+      <c r="AF4" s="7"/>
+      <c r="AG4" s="7"/>
+      <c r="AH4" s="7"/>
+      <c r="AI4" s="7"/>
+      <c r="AJ4" s="7"/>
+      <c r="AK4" s="7"/>
+      <c r="AL4" s="8"/>
+      <c r="AM4" s="7"/>
+      <c r="AN4" s="7"/>
+      <c r="AO4" s="9"/>
+      <c r="AP4" s="9"/>
+      <c r="AQ4" s="9"/>
+      <c r="AR4" s="9"/>
+      <c r="AS4" s="9"/>
+      <c r="AT4" s="9"/>
+      <c r="AU4" s="9"/>
+      <c r="AV4" s="9"/>
+      <c r="AW4" s="9"/>
+      <c r="AX4" s="9"/>
     </row>
-    <row r="5" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:50" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="2"/>
+      <c r="V5" s="2"/>
+      <c r="W5" s="2"/>
+      <c r="X5" s="2"/>
+      <c r="Y5" s="2"/>
+      <c r="Z5" s="2"/>
+      <c r="AA5" s="2"/>
+      <c r="AB5" s="2"/>
+      <c r="AC5" s="2"/>
+      <c r="AD5" s="2"/>
+      <c r="AE5" s="2"/>
+      <c r="AF5" s="2"/>
+      <c r="AG5" s="2"/>
+      <c r="AH5" s="2"/>
+      <c r="AI5" s="2"/>
+      <c r="AJ5" s="2"/>
+      <c r="AK5" s="2"/>
+      <c r="AN5" s="4"/>
+      <c r="AO5" s="4"/>
     </row>
-    <row r="6" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:50" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
+      <c r="V6" s="2"/>
+      <c r="W6" s="2"/>
+      <c r="X6" s="2"/>
+      <c r="Y6" s="2"/>
+      <c r="Z6" s="2"/>
+      <c r="AA6" s="2"/>
+      <c r="AB6" s="2"/>
+      <c r="AC6" s="2"/>
+      <c r="AD6" s="2"/>
+      <c r="AE6" s="2"/>
+      <c r="AF6" s="2"/>
+      <c r="AG6" s="2"/>
+      <c r="AH6" s="2"/>
+      <c r="AI6" s="2"/>
+      <c r="AJ6" s="2"/>
+      <c r="AK6" s="2"/>
+      <c r="AN6" s="4"/>
+      <c r="AO6" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A1:AX1"/>
+    <mergeCell ref="A2:AX2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
